--- a/data/georgia_census/kakheti/lagodexi/age_dependency.xlsx
+++ b/data/georgia_census/kakheti/lagodexi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2743366-8DBF-4008-8138-4ADC49926E2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2C408FD-F467-41B8-8BC4-D86BD672984B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CBFF936-97EF-4805-B5E1-C07E8921AF69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C420E59C-ACCB-4EED-938C-31968A6F3180}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE29708-6B30-42F6-92BC-2371701FCF71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{132B57A8-3C10-444B-82BF-C401A453F863}"/>
 </file>